--- a/loan_file.xlsx
+++ b/loan_file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>full_name</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Walfaanaa Magarsaa</t>
+  </si>
+  <si>
+    <t>Lammii  Diroo</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,6 +418,20 @@
         <v>46024</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>922956646</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>46027</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/loan_file.xlsx
+++ b/loan_file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>full_name</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Walfaanaa Magarsaa</t>
-  </si>
-  <si>
-    <t>Lammii  Diroo</t>
   </si>
 </sst>
 </file>
@@ -363,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,20 +415,6 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>922956646</v>
-      </c>
-      <c r="C4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>46027</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
